--- a/biology/Zoologie/Carrhotus_xanthogramma/Carrhotus_xanthogramma.xlsx
+++ b/biology/Zoologie/Carrhotus_xanthogramma/Carrhotus_xanthogramma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carrhotus xanthogramma, la Saltique orangé, est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carrhotus xanthogramma, la Saltique orangé, est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique[1].
-Elle a été observée au Portugal, en Espagne, en France, en Grande-Bretagne, en  Irlande, en Allemagne, en Pologne, en Hongrie, en Autriche, en Suisse, en Italie, en Slovénie, en Croatie, en Bosnie-Herzégovine, en Serbie, en Macédoine, en Roumanie, en Bulgarie, en Grèce, en Turquie, en Géorgie, en Azerbaïdjan, en Afghanistan, en Russie, en Chine, en Mongolie, en Corée du Sud,au Japon[2] et au Costa Rica[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en zone paléarctique.
+Elle a été observée au Portugal, en Espagne, en France, en Grande-Bretagne, en  Irlande, en Allemagne, en Pologne, en Hongrie, en Autriche, en Suisse, en Italie, en Slovénie, en Croatie, en Bosnie-Herzégovine, en Serbie, en Macédoine, en Roumanie, en Bulgarie, en Grèce, en Turquie, en Géorgie, en Azerbaïdjan, en Afghanistan, en Russie, en Chine, en Mongolie, en Corée du Sud,au Japon et au Costa Rica.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 5,1 à 7,1 mm et les femelles de 7,1 à 9 mm[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 5,1 à 7,1 mm et les femelles de 7,1 à 9 mm.
 Carrhotus xanthogramma est recouverte d'une dense pilosité. Le dimorphisme sexuel de cette espèce est prononcé. Les femelles selon la stratégie du mimétisme sont entièrement brun-jaunâtre striées de brun, y compris les pattes. L'opisthosome est ovale légèrement fuselé. Les mâles plus petits sont noirs avec le dessus de l'opisthosoma, qui est aplati et fuselé, orangé. La séparation entre l'opisthosome et le céphalothorax est bien marquée. Ses pattes noires possèdent des anneaux légèrement orangés.
 </t>
         </is>
@@ -575,7 +591,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par l'entomologiste français Pierre-André Latreille (1762-1833) sous le protonyme Salticus xanthogramma. Elle est l'espèce type du genre Carrhotus.
 </t>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Latreille, 1819 : Articles sur les araignées. Nouveau Dictionnaire d'Histoire naturelle, Seconde édition, vol. 22, Deterville, Paris.</t>
         </is>
